--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Incentive_Information.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Incentive_Information.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB85F5-934B-4C0F-8A74-47A86585107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>MaNV</t>
   </si>
@@ -58,12 +70,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,11 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +447,7 @@
     <col min="3" max="4" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +460,11 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -455,8 +473,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -464,6 +485,9 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +496,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$5:$A$9</xm:f>
           </x14:formula1>
@@ -485,7 +509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
